--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3122963.208266704</v>
+        <v>3119945.617865767</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8643724.351692524</v>
+        <v>8643724.351692522</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17.95704256613837</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>275.1871530868435</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>55.30577178795878</v>
+        <v>151.5218864977493</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>58.20830658053306</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>147.1246108841381</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.7218456862864</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>15.14483238681466</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>95.39099445956761</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.60603564323189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.3522746327445854</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789692</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7955476484028</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>115.216550257373</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051996</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>12.81263415054008</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.48672530783604</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>40.71096332175367</v>
+        <v>169.1477376595842</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>227.2273653925558</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2968,7 +2968,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>4.467071307536031</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>105.9852024927119</v>
+        <v>29.09084106573913</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4590648403945</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>145.2833756831822</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>14.17096283299235</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7644211441608035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>54.56247610797698</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2125.745768720171</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2125.745768720171</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>2125.745768720171</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.1363086691493</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C4" t="n">
-        <v>246.1363086691493</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D4" t="n">
-        <v>246.1363086691493</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E4" t="n">
-        <v>246.1363086691493</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="F4" t="n">
-        <v>246.1363086691493</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691493</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1363086691493</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>246.1363086691493</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.1363086691493</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.651480925462</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>941.6889639850508</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>941.6889639850508</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>941.6889639850508</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>530.7030591954433</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>112.7392510936302</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>112.7392510936302</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>2153.726218239669</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.251320989584</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533143</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157407</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1784.763701299258</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.624369323446</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.929935018509</v>
+        <v>223.2349977106396</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>54.29881478273273</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
@@ -4972,40 +4972,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600565</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620391</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.929935018509</v>
+        <v>223.2349977106396</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,10 +5051,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,13 +5267,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5291,34 +5291,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.5974452556121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273993</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>616.038489229382</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2459100858518</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,28 +5534,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.3642008327093</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609664</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X19" t="n">
-        <v>758.0126656629491</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.0126656629491</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,31 +5741,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5835,19 +5835,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3596.434152272341</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4260.730820705229</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4260.730820705229</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>3971.313650668269</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028583</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028583</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>1168.665446597972</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>879.2482765610114</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>879.2482765610114</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.2482765610114</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>1336.117678709276</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.700508672316</v>
+        <v>4376.647493502794</v>
       </c>
       <c r="X28" t="n">
-        <v>818.7109577742983</v>
+        <v>4148.657942604777</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>3927.865363461246</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,22 +6461,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6494,13 +6494,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6543,22 +6543,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1818.397748747283</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2338.698370483031</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632138</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D31" t="n">
-        <v>822.148054050878</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684849</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>252.147293152278</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>101.7292847002213</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2463.528495470036</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354.6908600059909</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C34" t="n">
-        <v>354.6908600059909</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6889,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>644.1080300429516</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>354.6908600059909</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>354.6908600059909</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y34" t="n">
-        <v>354.6908600059909</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,55 +7169,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
         <v>891.4406401619856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,7 +7424,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4512536188992</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C43" t="n">
-        <v>709.4512536188992</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>709.4512536188992</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188992</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536188992</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4512536188992</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4512536188992</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7649,7 +7649,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.0071030383442</v>
+        <v>1028.139166941221</v>
       </c>
       <c r="C46" t="n">
-        <v>675.0071030383442</v>
+        <v>859.2029840133141</v>
       </c>
       <c r="D46" t="n">
-        <v>675.0071030383442</v>
+        <v>709.0863446009784</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>561.1732510185852</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>414.2833035206748</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X46" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>308.1251096272034</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.7396287231151</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>73.64859338270637</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>61.34209567542524</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>52.0302708412548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>154.4341869480878</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>71.18267187568719</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>141.0068431555415</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>211.4266800020743</v>
+        <v>82.98990566424385</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24658,10 +24658,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>59.29563294403516</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>42.63027052550046</v>
+        <v>119.5246319524732</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,19 +25366,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.12558851170024</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25597,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.150586963387013</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>204.4136905191024</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6695415024084</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>111.9310923554006</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="11">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
@@ -26323,28 +26323,28 @@
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672192</v>
@@ -26353,7 +26353,7 @@
         <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.403899983831706e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430946</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430953</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430945</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151827.2408816759</v>
+        <v>-152242.4553911433</v>
       </c>
       <c r="C6" t="n">
-        <v>438140.6383328689</v>
+        <v>437725.4238234014</v>
       </c>
       <c r="D6" t="n">
-        <v>438140.6383328686</v>
+        <v>437725.4238234014</v>
       </c>
       <c r="E6" t="n">
-        <v>13339.08548729727</v>
+        <v>13004.91652016754</v>
       </c>
       <c r="F6" t="n">
-        <v>538499.1219641934</v>
+        <v>538164.9529970634</v>
       </c>
       <c r="G6" t="n">
-        <v>538499.1219641933</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="H6" t="n">
-        <v>538499.1219641935</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="I6" t="n">
-        <v>538499.1219641933</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="J6" t="n">
-        <v>362075.9027716004</v>
+        <v>361741.733804471</v>
       </c>
       <c r="K6" t="n">
-        <v>538499.1219641935</v>
+        <v>538164.9529970636</v>
       </c>
       <c r="L6" t="n">
-        <v>538499.1219641934</v>
+        <v>538164.9529970639</v>
       </c>
       <c r="M6" t="n">
-        <v>403698.1067303562</v>
+        <v>403363.9377632265</v>
       </c>
       <c r="N6" t="n">
-        <v>538499.1219641932</v>
+        <v>538164.9529970635</v>
       </c>
       <c r="O6" t="n">
-        <v>538499.1219641933</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="P6" t="n">
-        <v>538499.1219641932</v>
+        <v>538164.9529970634</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.254874979789632e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.254874979789632e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.254874979789632e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>347.3158492048692</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.49588853383943</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>112.0040304710921</v>
+        <v>15.78791576130166</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>93.72300966432819</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>222.606489794331</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>89.5600285556913</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>159.2708804221568</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.3401062189014</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>118.6407854553959</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>44.84768455579238</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.558930868568135e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31531,28 +31531,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31674,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,19 +31692,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35188,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058689</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>515.2185245587281</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
         <v>59.82538970349766</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36911,7 +36911,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36929,7 +36929,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>287.7526615081892</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>161.6616261677805</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3119945.617865767</v>
+        <v>3195475.287530574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>275.1871530868435</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>139.9133151432366</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>151.5218864977493</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8.546296656422978</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>225.4603876057576</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>147.1246108841381</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.382771042867707</v>
       </c>
       <c r="S8" t="n">
-        <v>15.14483238681466</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3522746327445854</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>262.2434559232498</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.964516789692</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>12.44879036787969</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.02126002760841</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>247.7926313651596</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>182.2149816711851</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.1477376595842</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>234.8031540381807</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>227.2273653925558</v>
+        <v>275.5977740555535</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.467071307536031</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>209.4552226741776</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>29.09084106573913</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.1779491261891</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.3419076393841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>115.5269768002176</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>45.41934813295845</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.17096283299235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>54.56247610797698</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.6201536583433</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4307,22 +4309,22 @@
         <v>1873.842488573869</v>
       </c>
       <c r="C2" t="n">
-        <v>1873.842488573869</v>
+        <v>1504.879971633457</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1504.879971633457</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4398,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>719.4963613211585</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>699.6445551805186</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>281.6807470787055</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2153.726218239669</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4765,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2695.752352591083</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2364.689465247513</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2011.920809977398</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1638.455051716319</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.2349977106396</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C10" t="n">
-        <v>54.29881478273273</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D10" t="n">
-        <v>54.29881478273273</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>54.29881478273273</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>54.29881478273273</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>54.29881478273273</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>54.29881478273273</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>54.29881478273273</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541698</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541698</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541698</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.2349977106396</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,19 +5053,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365137</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216475</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1486.341734832771</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1286.421724748324</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1062.636309537829</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1062.636309537829</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>807.9518213319425</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>807.9518213319425</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5257,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,55 +5272,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5512,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,22 +5533,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5589,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1281.689320534781</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1281.689320534781</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="W19" t="n">
-        <v>1281.689320534781</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.689320534781</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1314.860733516301</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5980,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5999,25 +6001,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>494.1428252862102</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6224,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3927.865363461246</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="C28" t="n">
-        <v>3927.865363461246</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="D28" t="n">
-        <v>3777.748724048911</v>
+        <v>4072.551765129215</v>
       </c>
       <c r="E28" t="n">
-        <v>3777.748724048911</v>
+        <v>3924.638671546822</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
         <v>4411.546387431056</v>
@@ -6415,19 +6417,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W28" t="n">
-        <v>4376.647493502794</v>
+        <v>4293.344344272746</v>
       </c>
       <c r="X28" t="n">
-        <v>4148.657942604777</v>
+        <v>4293.344344272746</v>
       </c>
       <c r="Y28" t="n">
-        <v>3927.865363461246</v>
+        <v>4072.551765129215</v>
       </c>
     </row>
     <row r="29">
@@ -6458,49 +6460,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>252.147293152278</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>101.7292847002213</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6649,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y31" t="n">
-        <v>420.3226148324574</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.825180851558</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.687808515591</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2463.528495470036</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.490562163493</v>
+        <v>822.9089152986055</v>
       </c>
       <c r="C34" t="n">
-        <v>388.5543792355861</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F34" t="n">
         <v>359.1696912903951</v>
@@ -6853,7 +6855,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1293.686018915287</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1004.557380128845</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1004.557380128845</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>1004.557380128845</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9316061372629</v>
+        <v>1004.557380128845</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.1390269937327</v>
+        <v>1004.557380128845</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,40 +6922,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>822.6075462588846</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201016</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>1453.038141130672</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>1225.048590232654</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,25 +7414,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.21084526296</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>1075.21084526296</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1028.139166941221</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C46" t="n">
-        <v>859.2029840133141</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D46" t="n">
-        <v>709.0863446009784</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E46" t="n">
-        <v>561.1732510185852</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F46" t="n">
-        <v>414.2833035206748</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1308.390862822202</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1084.605447611708</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>795.4768088252661</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>795.4768088252661</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.787631771461</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.787631771461</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="Y46" t="n">
-        <v>1209.787631771461</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863226</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.64859338270637</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>97.51556203591312</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>104.2255610710194</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>71.18267187568719</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>4.345011958668408</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>15.70582831241811</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.98990566424385</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>51.71984429841029</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>59.29563294403516</v>
+        <v>10.92522428103752</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>105.9521741567359</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.5246319524732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>18.36961193220014</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.2427457127107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>30.90698584635157</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>241.1036502036326</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30.75201340998657</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.4136905191024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>111.9310923554006</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>9.300656325259922</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="J2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,10 +26438,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911433</v>
+        <v>-152242.4553911429</v>
       </c>
       <c r="C6" t="n">
         <v>437725.4238234014</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234014</v>
+        <v>437725.4238234013</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016754</v>
+        <v>13004.91652016768</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970634</v>
+        <v>538164.9529970635</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.9529970638</v>
+        <v>538164.952997064</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970638</v>
+        <v>538164.9529970639</v>
       </c>
       <c r="I6" t="n">
         <v>538164.9529970638</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.733804471</v>
+        <v>361741.7338044709</v>
       </c>
       <c r="K6" t="n">
+        <v>538164.9529970638</v>
+      </c>
+      <c r="L6" t="n">
+        <v>538164.9529970638</v>
+      </c>
+      <c r="M6" t="n">
+        <v>403363.9377632269</v>
+      </c>
+      <c r="N6" t="n">
+        <v>538164.9529970638</v>
+      </c>
+      <c r="O6" t="n">
         <v>538164.9529970636</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>538164.9529970639</v>
-      </c>
-      <c r="M6" t="n">
-        <v>403363.9377632265</v>
-      </c>
-      <c r="N6" t="n">
-        <v>538164.9529970635</v>
-      </c>
-      <c r="O6" t="n">
-        <v>538164.9529970638</v>
-      </c>
-      <c r="P6" t="n">
-        <v>538164.9529970634</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.49588853383943</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>242.0170549290251</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>15.78791576130166</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>20.57645329849133</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>98.46238515859952</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>222.606489794331</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>53.09563153194399</v>
       </c>
       <c r="S8" t="n">
-        <v>159.2708804221568</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.84768455579238</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>24.27954241334123</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178474</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>161.6616261677805</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3195475.287530574</v>
+        <v>3188458.272638862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9133151432366</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.546296656422978</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>208.279329433658</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H5" t="n">
-        <v>225.4603876057576</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>43.31785343913975</v>
+        <v>25.25292425643942</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>118.4077773504832</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.382771042867707</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.6638564154455</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>262.2434559232498</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.72171624294533</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.44879036787969</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.02126002760841</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>247.7926313651596</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>182.2149816711851</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>234.8031540381807</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.5977740555535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,10 +2848,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W31" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>203.1779491261891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>118.5406516018299</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>45.41934813295845</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.0799667719507</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>135.5947476878508</v>
       </c>
     </row>
     <row r="44">
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>188.6201536583433</v>
+        <v>5.1077313359454</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1873.842488573869</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>1504.879971633457</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D2" t="n">
-        <v>1504.879971633457</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>719.4963613211585</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1496.41871256837</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>1110.630459970126</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F5" t="n">
-        <v>699.6445551805186</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G5" t="n">
-        <v>281.6807470787055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1335.564556632711</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>977.2988580259605</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>591.5106054277162</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.752352591083</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.752352591083</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2364.689465247513</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.920809977398</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.455051716319</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1704.527073573123</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545818</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545818</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545818</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5026,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2019.42446442012</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638817</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2503.987010421027</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1696912903951</v>
+        <v>607.1380464627246</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903951</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>290.2887699524246</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>290.2887699524246</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5202,13 +5202,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1486.341734832771</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1286.421724748324</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1062.636309537829</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1062.636309537829</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>807.9518213319425</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>807.9518213319425</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>579.9622704339251</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1696912903951</v>
+        <v>788.7865112929643</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5269,28 +5269,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324571</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324571</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324571</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324571</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,31 +5500,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>410.874530133163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890052</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>713.8401545872508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>713.8401545872508</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5746,52 +5746,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1314.860733516301</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1091.075318305807</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1091.075318305807</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1091.075318305807</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>801.6581482688464</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>494.1428252862102</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,19 +6211,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4571.72593422785</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4293.344344272746</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4293.344344272746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,13 +6484,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W31" t="n">
-        <v>208.7516828383384</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7516828383384</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.9089152986055</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C34" t="n">
-        <v>653.9727323706986</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706986</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883055</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1293.686018915287</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1004.557380128845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1004.557380128845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>1004.557380128845</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>1004.557380128845</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y34" t="n">
-        <v>1004.557380128845</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,43 +6922,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.6075462588846</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>653.6713633309777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>1453.038141130672</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>1225.048590232654</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X43" t="n">
-        <v>468.5954956259884</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.8029164824583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1308.390862822202</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T46" t="n">
-        <v>1084.605447611708</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U46" t="n">
-        <v>795.4768088252661</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V46" t="n">
-        <v>795.4768088252661</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W46" t="n">
-        <v>506.0596387883054</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X46" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0596387883054</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>32.78140656352323</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>124.340078086323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772039</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978225</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>85.77185222043225</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.51556203591312</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.2255610710194</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.0884962179943</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.345011958668408</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>15.70582831241811</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>51.71984429841029</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10.92522428103752</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W31" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>18.36961193220014</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>107.1690037872072</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>241.1036502036326</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.75201340998657</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>82.98990566424402</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>9.300656325259922</v>
+        <v>192.8130786476578</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672192</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="M2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,13 +26438,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911429</v>
+        <v>-152242.455391143</v>
       </c>
       <c r="C6" t="n">
         <v>437725.4238234014</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234013</v>
+        <v>437725.4238234012</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016768</v>
+        <v>12030.32526044614</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970635</v>
+        <v>537190.3617373419</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.952997064</v>
+        <v>537190.3617373424</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970639</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="I6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.361737342</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.7338044709</v>
+        <v>360767.1425447494</v>
       </c>
       <c r="K6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.361737342</v>
       </c>
       <c r="L6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.361737342</v>
       </c>
       <c r="M6" t="n">
-        <v>403363.9377632269</v>
+        <v>402389.3465035049</v>
       </c>
       <c r="N6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373417</v>
       </c>
       <c r="O6" t="n">
-        <v>538164.9529970636</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="P6" t="n">
-        <v>538164.9529970639</v>
+        <v>537190.3617373421</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>242.0170549290251</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.57645329849133</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.43032595537917</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46238515859952</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>123.9289676594881</v>
+        <v>141.9938968421884</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>288.4682683912282</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53.09563153194399</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.27954241334123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>120.7944393485974</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>274.9155166742622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36694,7 +36694,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958065</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37879,7 +37879,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3188458.272638862</v>
+        <v>3193397.535487894</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>372.3397932141368</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>208.279329433658</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>351.2391879744742</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>10.50623107476311</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.25292425643942</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>101.4470869306114</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>118.4077773504832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>311.493687215939</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.6638564154455</v>
+        <v>28.1767296132054</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80.72171624294533</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274013</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.5269768002181</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1341457645935</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065126</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498018</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>118.5406516018299</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>207.0920728594998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>203.5330926723471</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.5947476878508</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.1077313359454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>819.715945170047</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>408.7300403804394</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.527073573123</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.564556632711</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>977.2988580259605</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>591.5106054277162</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573123</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573123</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>559.1928012785272</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>559.1928012785272</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>411.2797076961341</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>264.3897601982237</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>264.3897601982237</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,52 +5038,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5111,34 +5111,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1689.561836756087</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2019.42446442012</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2298.964529638817</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2503.987010421027</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.1380464627246</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>438.2018635348177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>438.2018635348177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>290.2887699524246</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>290.2887699524246</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.7865112929643</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201021</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201021</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201021</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201021</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5518,22 +5518,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,19 +6211,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6308,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6411,19 +6411,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.03077229167</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1194.613602254709</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>966.6240513566914</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6894,16 +6894,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>496.665036439558</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.971530765645</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>980.8428919792032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>726.1584037733163</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>436.7412337363557</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7605,13 +7605,13 @@
         <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W43" t="n">
-        <v>643.8194987924326</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>415.8299478944152</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
         <v>278.8655562905255</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1493.756945976139</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1269.971530765645</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>980.8428919792033</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>726.1584037733164</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W46" t="n">
-        <v>436.7412337363558</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X46" t="n">
-        <v>208.7516828383384</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.78140656352323</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>308.125109627204</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>85.77185222043225</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.0884962179943</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>1.450507587501249</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>107.1690037872072</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>192.8130786476576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>79.43092547709125</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.98990566424388</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.98990566424402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>192.8130786476578</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143913</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,13 +26438,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,19 +26496,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.455391143</v>
+        <v>-152242.4553911431</v>
       </c>
       <c r="C6" t="n">
-        <v>437725.4238234014</v>
+        <v>437725.4238234013</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234012</v>
+        <v>437725.4238234013</v>
       </c>
       <c r="E6" t="n">
-        <v>12030.32526044614</v>
+        <v>12907.45739419539</v>
       </c>
       <c r="F6" t="n">
-        <v>537190.3617373419</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="G6" t="n">
-        <v>537190.3617373424</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="H6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="I6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="J6" t="n">
-        <v>360767.1425447494</v>
+        <v>361644.2746784987</v>
       </c>
       <c r="K6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="L6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="M6" t="n">
-        <v>402389.3465035049</v>
+        <v>403266.4786372547</v>
       </c>
       <c r="N6" t="n">
-        <v>537190.3617373417</v>
+        <v>538067.493871092</v>
       </c>
       <c r="O6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="P6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710917</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.590576858125019</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>52.02592219651726</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>17.43032595537917</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.54498204632074</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>163.9094817342084</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>141.9938968421884</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>184.8347873113664</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>288.4682683912282</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>74.74425144011457</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634964</v>
+        <v>127.9941592285898</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.7944393485974</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>641.3196830252168</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
